--- a/Slicing_Example.xlsx
+++ b/Slicing_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Siva_OldLaptop\Laptop_E_prompt\NOTES\Python\Parthiban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5158E9DC-F618-4DA3-8DF0-077059341DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630845D-09F1-41D6-80FA-574A2EEC5281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="226">
   <si>
     <t>p</t>
   </si>
@@ -355,6 +355,354 @@
   </si>
   <si>
     <t>jv_oplrg</t>
+  </si>
+  <si>
+    <t>TYPE3</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>print(a[3:-3:3])</t>
+  </si>
+  <si>
+    <t>print(a[3:-3:-3])</t>
+  </si>
+  <si>
+    <t>print(a[-3:3:3])</t>
+  </si>
+  <si>
+    <t>print(a[-3:3:-3])</t>
+  </si>
+  <si>
+    <t>pese</t>
+  </si>
+  <si>
+    <t>ncru</t>
+  </si>
+  <si>
+    <t>TYPE4&amp;TYPE5</t>
+  </si>
+  <si>
+    <t>print(a[2::5])</t>
+  </si>
+  <si>
+    <t>print(a[10::5])</t>
+  </si>
+  <si>
+    <t>print(a[:6:1])</t>
+  </si>
+  <si>
+    <t>print(a[:7:-2])</t>
+  </si>
+  <si>
+    <t>TYPE5</t>
+  </si>
+  <si>
+    <t>print(a[::-3])</t>
+  </si>
+  <si>
+    <t>eesepc</t>
+  </si>
+  <si>
+    <t>print(a[::-2])</t>
+  </si>
+  <si>
+    <t>print(a[::1])</t>
+  </si>
+  <si>
+    <t>print(a[::2])</t>
+  </si>
+  <si>
+    <t>print(a[::3])</t>
+  </si>
+  <si>
+    <t>print(a[::-1])</t>
+  </si>
+  <si>
+    <t>ecneics_retupmoc</t>
+  </si>
+  <si>
+    <t>enisrtpo</t>
+  </si>
+  <si>
+    <t>computer_science</t>
+  </si>
+  <si>
+    <t>cmue_cec</t>
+  </si>
+  <si>
+    <t>cpesee</t>
+  </si>
+  <si>
+    <t>print(a[6::3])</t>
+  </si>
+  <si>
+    <t>print(a[6::-3])</t>
+  </si>
+  <si>
+    <t>print(a[:8:3])</t>
+  </si>
+  <si>
+    <t>print(a[:8:-3])</t>
+  </si>
+  <si>
+    <t>esee</t>
+  </si>
+  <si>
+    <t>epc</t>
+  </si>
+  <si>
+    <t>cpe</t>
+  </si>
+  <si>
+    <t>ees</t>
+  </si>
+  <si>
+    <t>mre</t>
+  </si>
+  <si>
+    <t>ctc</t>
+  </si>
+  <si>
+    <t>comput</t>
+  </si>
+  <si>
+    <t>enis</t>
+  </si>
+  <si>
+    <t>print(a[2:-2:2])</t>
+  </si>
+  <si>
+    <t>print(a[2:-2:-2])</t>
+  </si>
+  <si>
+    <t>print(a[-2:2:2])</t>
+  </si>
+  <si>
+    <t>print(a[-2:2:-2])</t>
+  </si>
+  <si>
+    <t>mue_ce</t>
+  </si>
+  <si>
+    <t>cec_eu</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>print(a[-2:0:-1])</t>
+  </si>
+  <si>
+    <t>print(a[5:-5:5])</t>
+  </si>
+  <si>
+    <t>print(a[-5:5:-5])</t>
+  </si>
+  <si>
+    <t>print(a[5:-5:-5])</t>
+  </si>
+  <si>
+    <t>print(a[3:9:-1])</t>
+  </si>
+  <si>
+    <t>print(a[9:-10:-2])</t>
+  </si>
+  <si>
+    <t>print(a[2:-4:-4])</t>
+  </si>
+  <si>
+    <t>print(a[-4:2:-2])</t>
+  </si>
+  <si>
+    <t>print(a[0:-1:-3])</t>
+  </si>
+  <si>
+    <t>print(a[-3:3:6])</t>
+  </si>
+  <si>
+    <t>print(a[::-5])</t>
+  </si>
+  <si>
+    <t>golonhceT_noitamrofn</t>
+  </si>
+  <si>
+    <t>mnh</t>
+  </si>
+  <si>
+    <t>oTt</t>
+  </si>
+  <si>
+    <t>lncTniar</t>
+  </si>
+  <si>
+    <t>ylhToaoI</t>
+  </si>
+  <si>
+    <t>yoohe_otmon</t>
+  </si>
+  <si>
+    <t>frainTcnl</t>
+  </si>
+  <si>
+    <t>oaoThl</t>
+  </si>
+  <si>
+    <t>IfrainTcnlg</t>
+  </si>
+  <si>
+    <t>yn_an</t>
+  </si>
+  <si>
+    <t>python_is_using_interpreter</t>
+  </si>
+  <si>
+    <t>Information_Technology</t>
+  </si>
+  <si>
+    <t>eterpretni_gnisu_si_nohty</t>
+  </si>
+  <si>
+    <t>nu_r</t>
+  </si>
+  <si>
+    <t>rnii</t>
+  </si>
+  <si>
+    <t>epen_ns_inh</t>
+  </si>
+  <si>
+    <t>rerngssnt</t>
+  </si>
+  <si>
+    <t>rtrrtigius_otp</t>
+  </si>
+  <si>
+    <t>to_suigitrrt</t>
+  </si>
+  <si>
+    <t>h__i_tp</t>
+  </si>
+  <si>
+    <t>pto_suigitrrtr</t>
+  </si>
+  <si>
+    <t>rpis_y</t>
+  </si>
+  <si>
+    <t>computer science</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>ienc</t>
+  </si>
+  <si>
+    <t>t ic</t>
+  </si>
+  <si>
+    <t>cmu</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>ese</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>print(a[-10:10:3])</t>
+  </si>
+  <si>
+    <t>print(a[-5:-1:1])</t>
+  </si>
+  <si>
+    <t>print(a[-8:-2:10])</t>
+  </si>
+  <si>
+    <t>print(a[5::3])</t>
+  </si>
+  <si>
+    <t>print(a[:5:2])</t>
+  </si>
+  <si>
+    <t>print(a[10:14:2])</t>
+  </si>
+  <si>
+    <t>print(a[-10:-3:3])</t>
+  </si>
+  <si>
+    <t>print(a[5:12:5])</t>
+  </si>
+  <si>
+    <t>print(a[-5:-3:20])</t>
+  </si>
+  <si>
+    <t>olog</t>
+  </si>
+  <si>
+    <t>mi_cog</t>
+  </si>
+  <si>
+    <t>Ifr</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>thl</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>oaothl</t>
+  </si>
+  <si>
+    <t>Google_chrome_browser</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>owse</t>
+  </si>
+  <si>
+    <t>ehmbwr</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>oe</t>
+  </si>
+  <si>
+    <t>mbw</t>
+  </si>
+  <si>
+    <t>eo</t>
+  </si>
+  <si>
+    <t>g_rer</t>
   </si>
 </sst>
 </file>
@@ -385,7 +733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,8 +770,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -446,11 +800,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,6 +834,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,17 +1116,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U55"/>
+  <dimension ref="A2:AD191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -767,9 +1134,6 @@
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -778,9 +1142,6 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
@@ -837,9 +1198,6 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -898,9 +1256,6 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D5" s="2">
         <v>-18</v>
@@ -1650,7 +2005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1661,7 +2016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1672,7 +2027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1683,7 +2038,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1694,7 +2049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1705,7 +2060,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1716,7 +2071,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1724,7 +2079,2255 @@
         <v>74</v>
       </c>
     </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4</v>
+      </c>
+      <c r="I59" s="1">
+        <v>5</v>
+      </c>
+      <c r="J59" s="1">
+        <v>6</v>
+      </c>
+      <c r="K59" s="1">
+        <v>7</v>
+      </c>
+      <c r="L59" s="1">
+        <v>8</v>
+      </c>
+      <c r="M59" s="1">
+        <v>9</v>
+      </c>
+      <c r="N59" s="1">
+        <v>10</v>
+      </c>
+      <c r="O59" s="1">
+        <v>11</v>
+      </c>
+      <c r="P59" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>13</v>
+      </c>
+      <c r="R59" s="1">
+        <v>14</v>
+      </c>
+      <c r="S59" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-16</v>
+      </c>
+      <c r="E61" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F61" s="2">
+        <v>-14</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-13</v>
+      </c>
+      <c r="H61" s="2">
+        <v>-12</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-11</v>
+      </c>
+      <c r="J61" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K61" s="2">
+        <v>-9</v>
+      </c>
+      <c r="L61" s="2">
+        <v>-8</v>
+      </c>
+      <c r="M61" s="2">
+        <v>-7</v>
+      </c>
+      <c r="N61" s="2">
+        <v>-6</v>
+      </c>
+      <c r="O61" s="2">
+        <v>-5</v>
+      </c>
+      <c r="P61" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R61" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S61" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B62" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="S76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B77" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1">
+        <v>4</v>
+      </c>
+      <c r="I77" s="1">
+        <v>5</v>
+      </c>
+      <c r="J77" s="1">
+        <v>6</v>
+      </c>
+      <c r="K77" s="1">
+        <v>7</v>
+      </c>
+      <c r="L77" s="1">
+        <v>8</v>
+      </c>
+      <c r="M77" s="1">
+        <v>9</v>
+      </c>
+      <c r="N77" s="1">
+        <v>10</v>
+      </c>
+      <c r="O77" s="1">
+        <v>11</v>
+      </c>
+      <c r="P77" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>13</v>
+      </c>
+      <c r="R77" s="1">
+        <v>14</v>
+      </c>
+      <c r="S77" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B78" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B79" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-16</v>
+      </c>
+      <c r="E79" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F79" s="2">
+        <v>-14</v>
+      </c>
+      <c r="G79" s="2">
+        <v>-13</v>
+      </c>
+      <c r="H79" s="2">
+        <v>-12</v>
+      </c>
+      <c r="I79" s="2">
+        <v>-11</v>
+      </c>
+      <c r="J79" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K79" s="2">
+        <v>-9</v>
+      </c>
+      <c r="L79" s="2">
+        <v>-8</v>
+      </c>
+      <c r="M79" s="2">
+        <v>-7</v>
+      </c>
+      <c r="N79" s="2">
+        <v>-6</v>
+      </c>
+      <c r="O79" s="2">
+        <v>-5</v>
+      </c>
+      <c r="P79" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R79" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S79" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B80" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="S90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A91" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1">
+        <v>4</v>
+      </c>
+      <c r="I91" s="1">
+        <v>5</v>
+      </c>
+      <c r="J91" s="1">
+        <v>6</v>
+      </c>
+      <c r="K91" s="1">
+        <v>7</v>
+      </c>
+      <c r="L91" s="1">
+        <v>8</v>
+      </c>
+      <c r="M91" s="1">
+        <v>9</v>
+      </c>
+      <c r="N91" s="1">
+        <v>10</v>
+      </c>
+      <c r="O91" s="1">
+        <v>11</v>
+      </c>
+      <c r="P91" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>13</v>
+      </c>
+      <c r="R91" s="1">
+        <v>14</v>
+      </c>
+      <c r="S91" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="2">
+        <v>-16</v>
+      </c>
+      <c r="E93" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F93" s="2">
+        <v>-14</v>
+      </c>
+      <c r="G93" s="2">
+        <v>-13</v>
+      </c>
+      <c r="H93" s="2">
+        <v>-12</v>
+      </c>
+      <c r="I93" s="2">
+        <v>-11</v>
+      </c>
+      <c r="J93" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K93" s="2">
+        <v>-9</v>
+      </c>
+      <c r="L93" s="2">
+        <v>-8</v>
+      </c>
+      <c r="M93" s="2">
+        <v>-7</v>
+      </c>
+      <c r="N93" s="2">
+        <v>-6</v>
+      </c>
+      <c r="O93" s="2">
+        <v>-5</v>
+      </c>
+      <c r="P93" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R93" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S93" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B95" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3</v>
+      </c>
+      <c r="H99" s="1">
+        <v>4</v>
+      </c>
+      <c r="I99" s="1">
+        <v>5</v>
+      </c>
+      <c r="J99" s="1">
+        <v>6</v>
+      </c>
+      <c r="K99" s="1">
+        <v>7</v>
+      </c>
+      <c r="L99" s="1">
+        <v>8</v>
+      </c>
+      <c r="M99" s="1">
+        <v>9</v>
+      </c>
+      <c r="N99" s="1">
+        <v>10</v>
+      </c>
+      <c r="O99" s="1">
+        <v>11</v>
+      </c>
+      <c r="P99" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>13</v>
+      </c>
+      <c r="R99" s="1">
+        <v>14</v>
+      </c>
+      <c r="S99" s="1">
+        <v>15</v>
+      </c>
+      <c r="T99" s="1">
+        <v>16</v>
+      </c>
+      <c r="U99" s="1">
+        <v>17</v>
+      </c>
+      <c r="V99" s="1">
+        <v>18</v>
+      </c>
+      <c r="W99" s="1">
+        <v>19</v>
+      </c>
+      <c r="X99" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W100" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y100" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D101" s="2">
+        <v>-22</v>
+      </c>
+      <c r="E101" s="2">
+        <v>-21</v>
+      </c>
+      <c r="F101" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G101" s="2">
+        <v>-19</v>
+      </c>
+      <c r="H101" s="2">
+        <v>-18</v>
+      </c>
+      <c r="I101" s="2">
+        <v>-17</v>
+      </c>
+      <c r="J101" s="2">
+        <v>-16</v>
+      </c>
+      <c r="K101" s="2">
+        <v>-15</v>
+      </c>
+      <c r="L101" s="2">
+        <v>-14</v>
+      </c>
+      <c r="M101" s="2">
+        <v>-13</v>
+      </c>
+      <c r="N101" s="2">
+        <v>-12</v>
+      </c>
+      <c r="O101" s="2">
+        <v>-11</v>
+      </c>
+      <c r="P101" s="2">
+        <v>-10</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>-9</v>
+      </c>
+      <c r="R101" s="2">
+        <v>-8</v>
+      </c>
+      <c r="S101" s="2">
+        <v>-7</v>
+      </c>
+      <c r="T101" s="2">
+        <v>-6</v>
+      </c>
+      <c r="U101" s="2">
+        <v>-5</v>
+      </c>
+      <c r="V101" s="2">
+        <v>-4</v>
+      </c>
+      <c r="W101" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X101" s="2">
+        <v>-2</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>3</v>
+      </c>
+      <c r="H123" s="1">
+        <v>4</v>
+      </c>
+      <c r="I123" s="1">
+        <v>5</v>
+      </c>
+      <c r="J123" s="1">
+        <v>6</v>
+      </c>
+      <c r="K123" s="1">
+        <v>7</v>
+      </c>
+      <c r="L123" s="1">
+        <v>8</v>
+      </c>
+      <c r="M123" s="1">
+        <v>9</v>
+      </c>
+      <c r="N123" s="1">
+        <v>10</v>
+      </c>
+      <c r="O123" s="1">
+        <v>11</v>
+      </c>
+      <c r="P123" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>13</v>
+      </c>
+      <c r="R123" s="1">
+        <v>14</v>
+      </c>
+      <c r="S123" s="1">
+        <v>15</v>
+      </c>
+      <c r="T123" s="1">
+        <v>16</v>
+      </c>
+      <c r="U123" s="1">
+        <v>17</v>
+      </c>
+      <c r="V123" s="1">
+        <v>18</v>
+      </c>
+      <c r="W123" s="1">
+        <v>19</v>
+      </c>
+      <c r="X123" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y123" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z123" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA123" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB123" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC123" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD123" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U124" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V124" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W124" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X124" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y124" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA124" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB124" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC124" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD124" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="D125" s="2">
+        <v>-27</v>
+      </c>
+      <c r="E125" s="2">
+        <v>-26</v>
+      </c>
+      <c r="F125" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G125" s="2">
+        <v>-24</v>
+      </c>
+      <c r="H125" s="2">
+        <v>-23</v>
+      </c>
+      <c r="I125" s="2">
+        <v>-22</v>
+      </c>
+      <c r="J125" s="2">
+        <v>-21</v>
+      </c>
+      <c r="K125" s="2">
+        <v>-20</v>
+      </c>
+      <c r="L125" s="2">
+        <v>-19</v>
+      </c>
+      <c r="M125" s="2">
+        <v>-18</v>
+      </c>
+      <c r="N125" s="2">
+        <v>-17</v>
+      </c>
+      <c r="O125" s="2">
+        <v>-16</v>
+      </c>
+      <c r="P125" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>-14</v>
+      </c>
+      <c r="R125" s="2">
+        <v>-13</v>
+      </c>
+      <c r="S125" s="2">
+        <v>-12</v>
+      </c>
+      <c r="T125" s="2">
+        <v>-11</v>
+      </c>
+      <c r="U125" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V125" s="2">
+        <v>-9</v>
+      </c>
+      <c r="W125" s="2">
+        <v>-8</v>
+      </c>
+      <c r="X125" s="2">
+        <v>-7</v>
+      </c>
+      <c r="Y125" s="2">
+        <v>-6</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AA125" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AB125" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC125" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AD125" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>113</v>
+      </c>
+      <c r="C141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="S145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2</v>
+      </c>
+      <c r="G146" s="1">
+        <v>3</v>
+      </c>
+      <c r="H146" s="1">
+        <v>4</v>
+      </c>
+      <c r="I146" s="1">
+        <v>5</v>
+      </c>
+      <c r="J146" s="1">
+        <v>6</v>
+      </c>
+      <c r="K146" s="1">
+        <v>7</v>
+      </c>
+      <c r="L146" s="1">
+        <v>8</v>
+      </c>
+      <c r="M146" s="1">
+        <v>9</v>
+      </c>
+      <c r="N146" s="1">
+        <v>10</v>
+      </c>
+      <c r="O146" s="1">
+        <v>11</v>
+      </c>
+      <c r="P146" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>13</v>
+      </c>
+      <c r="R146" s="1">
+        <v>14</v>
+      </c>
+      <c r="S146" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S147" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="D148" s="2">
+        <v>-16</v>
+      </c>
+      <c r="E148" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-14</v>
+      </c>
+      <c r="G148" s="2">
+        <v>-13</v>
+      </c>
+      <c r="H148" s="2">
+        <v>-12</v>
+      </c>
+      <c r="I148" s="2">
+        <v>-11</v>
+      </c>
+      <c r="J148" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K148" s="2">
+        <v>-9</v>
+      </c>
+      <c r="L148" s="2">
+        <v>-8</v>
+      </c>
+      <c r="M148" s="2">
+        <v>-7</v>
+      </c>
+      <c r="N148" s="2">
+        <v>-6</v>
+      </c>
+      <c r="O148" s="2">
+        <v>-5</v>
+      </c>
+      <c r="P148" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Q148" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R148" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S148" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>206</v>
+      </c>
+      <c r="C157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2</v>
+      </c>
+      <c r="G163" s="1">
+        <v>3</v>
+      </c>
+      <c r="H163" s="1">
+        <v>4</v>
+      </c>
+      <c r="I163" s="1">
+        <v>5</v>
+      </c>
+      <c r="J163" s="1">
+        <v>6</v>
+      </c>
+      <c r="K163" s="1">
+        <v>7</v>
+      </c>
+      <c r="L163" s="1">
+        <v>8</v>
+      </c>
+      <c r="M163" s="1">
+        <v>9</v>
+      </c>
+      <c r="N163" s="1">
+        <v>10</v>
+      </c>
+      <c r="O163" s="1">
+        <v>11</v>
+      </c>
+      <c r="P163" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>13</v>
+      </c>
+      <c r="R163" s="1">
+        <v>14</v>
+      </c>
+      <c r="S163" s="1">
+        <v>15</v>
+      </c>
+      <c r="T163" s="1">
+        <v>16</v>
+      </c>
+      <c r="U163" s="1">
+        <v>17</v>
+      </c>
+      <c r="V163" s="1">
+        <v>18</v>
+      </c>
+      <c r="W163" s="1">
+        <v>19</v>
+      </c>
+      <c r="X163" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>180</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P164" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S164" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T164" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U164" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V164" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W164" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X164" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y164" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D165" s="2">
+        <v>-22</v>
+      </c>
+      <c r="E165" s="2">
+        <v>-21</v>
+      </c>
+      <c r="F165" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G165" s="2">
+        <v>-19</v>
+      </c>
+      <c r="H165" s="2">
+        <v>-18</v>
+      </c>
+      <c r="I165" s="2">
+        <v>-17</v>
+      </c>
+      <c r="J165" s="2">
+        <v>-16</v>
+      </c>
+      <c r="K165" s="2">
+        <v>-15</v>
+      </c>
+      <c r="L165" s="2">
+        <v>-14</v>
+      </c>
+      <c r="M165" s="2">
+        <v>-13</v>
+      </c>
+      <c r="N165" s="2">
+        <v>-12</v>
+      </c>
+      <c r="O165" s="2">
+        <v>-11</v>
+      </c>
+      <c r="P165" s="2">
+        <v>-10</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>-9</v>
+      </c>
+      <c r="R165" s="2">
+        <v>-8</v>
+      </c>
+      <c r="S165" s="2">
+        <v>-7</v>
+      </c>
+      <c r="T165" s="2">
+        <v>-6</v>
+      </c>
+      <c r="U165" s="2">
+        <v>-5</v>
+      </c>
+      <c r="V165" s="2">
+        <v>-4</v>
+      </c>
+      <c r="W165" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X165" s="2">
+        <v>-2</v>
+      </c>
+      <c r="Y165" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>199</v>
+      </c>
+      <c r="C167" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>202</v>
+      </c>
+      <c r="C170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>204</v>
+      </c>
+      <c r="C172" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>205</v>
+      </c>
+      <c r="C173" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="174" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>206</v>
+      </c>
+      <c r="C174" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>113</v>
+      </c>
+      <c r="C175" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>207</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="X178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="D179" s="1">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2</v>
+      </c>
+      <c r="G179" s="1">
+        <v>3</v>
+      </c>
+      <c r="H179" s="1">
+        <v>4</v>
+      </c>
+      <c r="I179" s="1">
+        <v>5</v>
+      </c>
+      <c r="J179" s="1">
+        <v>6</v>
+      </c>
+      <c r="K179" s="1">
+        <v>7</v>
+      </c>
+      <c r="L179" s="1">
+        <v>8</v>
+      </c>
+      <c r="M179" s="1">
+        <v>9</v>
+      </c>
+      <c r="N179" s="1">
+        <v>10</v>
+      </c>
+      <c r="O179" s="1">
+        <v>11</v>
+      </c>
+      <c r="P179" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>13</v>
+      </c>
+      <c r="R179" s="1">
+        <v>14</v>
+      </c>
+      <c r="S179" s="1">
+        <v>15</v>
+      </c>
+      <c r="T179" s="1">
+        <v>16</v>
+      </c>
+      <c r="U179" s="1">
+        <v>17</v>
+      </c>
+      <c r="V179" s="1">
+        <v>18</v>
+      </c>
+      <c r="W179" s="1">
+        <v>19</v>
+      </c>
+      <c r="X179" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>215</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T180" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U180" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="V180" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="W180" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X180" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="D181" s="2">
+        <v>-22</v>
+      </c>
+      <c r="E181" s="2">
+        <v>-21</v>
+      </c>
+      <c r="F181" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G181" s="2">
+        <v>-19</v>
+      </c>
+      <c r="H181" s="2">
+        <v>-18</v>
+      </c>
+      <c r="I181" s="2">
+        <v>-17</v>
+      </c>
+      <c r="J181" s="2">
+        <v>-16</v>
+      </c>
+      <c r="K181" s="2">
+        <v>-15</v>
+      </c>
+      <c r="L181" s="2">
+        <v>-14</v>
+      </c>
+      <c r="M181" s="2">
+        <v>-13</v>
+      </c>
+      <c r="N181" s="2">
+        <v>-12</v>
+      </c>
+      <c r="O181" s="2">
+        <v>-11</v>
+      </c>
+      <c r="P181" s="2">
+        <v>-10</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>-9</v>
+      </c>
+      <c r="R181" s="2">
+        <v>-8</v>
+      </c>
+      <c r="S181" s="2">
+        <v>-7</v>
+      </c>
+      <c r="T181" s="2">
+        <v>-6</v>
+      </c>
+      <c r="U181" s="2">
+        <v>-5</v>
+      </c>
+      <c r="V181" s="2">
+        <v>-4</v>
+      </c>
+      <c r="W181" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X181" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>199</v>
+      </c>
+      <c r="C182" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>201</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>202</v>
+      </c>
+      <c r="C185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>203</v>
+      </c>
+      <c r="C186" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>204</v>
+      </c>
+      <c r="C187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>205</v>
+      </c>
+      <c r="C188" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>206</v>
+      </c>
+      <c r="C189" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>113</v>
+      </c>
+      <c r="C190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>207</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Slicing_Example.xlsx
+++ b/Slicing_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Siva_OldLaptop\Laptop_E_prompt\NOTES\Python\Parthiban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630845D-09F1-41D6-80FA-574A2EEC5281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12AAF6-46A1-4C95-8482-9F45C243A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="226">
   <si>
     <t>p</t>
   </si>
@@ -1119,7 +1119,7 @@
   <dimension ref="A2:AD191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3409,21 +3409,33 @@
       <c r="B129" t="s">
         <v>161</v>
       </c>
+      <c r="C129" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>162</v>
       </c>
+      <c r="C130" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>163</v>
       </c>
+      <c r="C131" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>164</v>
       </c>
+      <c r="C132" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
@@ -3437,11 +3449,17 @@
       <c r="B134" t="s">
         <v>166</v>
       </c>
+      <c r="C134" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>167</v>
       </c>
+      <c r="C135" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
@@ -3462,6 +3480,9 @@
     <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>150</v>
+      </c>
+      <c r="C138" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.35">
